--- a/ProyectoCheques/Proyecto/others/pruebaCheques.xlsx
+++ b/ProyectoCheques/Proyecto/others/pruebaCheques.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:C15"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,58 +387,58 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C1" s="2">
         <v>1453.33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C2" s="2">
         <v>123.343</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C3" s="2">
         <v>223.34299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C4" s="2">
         <v>323.34300000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C5" s="2">
         <v>423.34300000000002</v>
       </c>
     </row>
